--- a/Locations.xlsx
+++ b/Locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Downloads\Spel\Valheim\Serverconfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C020D7-0CE7-43E5-8A94-03678AD1BB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E536C5-7E32-404E-B7AA-751D4880445B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25200" yWindow="1005" windowWidth="24720" windowHeight="14595" xr2:uid="{37684AEC-320A-4AAA-9B47-B5B3EE25AFBC}"/>
+    <workbookView xWindow="-25200" yWindow="315" windowWidth="24720" windowHeight="15150" xr2:uid="{37684AEC-320A-4AAA-9B47-B5B3EE25AFBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Specs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="222">
   <si>
     <t>Namn</t>
   </si>
@@ -223,9 +223,6 @@
     <t>Height Range</t>
   </si>
   <si>
-    <t>25 - 50</t>
-  </si>
-  <si>
     <t>50 - 60</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t>15+</t>
   </si>
   <si>
-    <t>25+</t>
-  </si>
-  <si>
     <t>5+</t>
   </si>
   <si>
@@ -704,6 +698,9 @@
   </si>
   <si>
     <t>BonePileSpawner</t>
+  </si>
+  <si>
+    <t>20 - 50</t>
   </si>
 </sst>
 </file>
@@ -977,7 +974,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1000,7 +997,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2112,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D7D58F-8042-4B06-93D6-9BA336593CA8}">
   <dimension ref="A2:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,24 +2180,24 @@
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
@@ -2218,24 +2214,24 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
@@ -2252,24 +2248,24 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
@@ -2286,24 +2282,24 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -2326,21 +2322,21 @@
         <v>9</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -2360,21 +2356,21 @@
         <v>12</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -2400,17 +2396,17 @@
         <v>59</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -2436,17 +2432,17 @@
         <v>59</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -2470,17 +2466,17 @@
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
@@ -2498,17 +2494,17 @@
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -2528,17 +2524,17 @@
         <v>59</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -2555,20 +2551,20 @@
         <v>39</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
@@ -2586,17 +2582,17 @@
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
@@ -2614,17 +2610,17 @@
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="G16" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
@@ -2642,17 +2638,17 @@
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -2670,17 +2666,17 @@
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="G18" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
@@ -2694,21 +2690,21 @@
         <v>21</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="10">
         <v>-5500</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -2728,17 +2724,17 @@
         <v>59</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="10">
         <v>-5500</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -2756,17 +2752,17 @@
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="10">
         <v>-5500</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
@@ -2780,21 +2776,21 @@
         <v>24</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22" s="10">
         <v>-5500</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
@@ -2812,17 +2808,17 @@
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F23" s="10">
         <v>0</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
@@ -2840,17 +2836,17 @@
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="10">
         <v>-5500</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
@@ -2868,17 +2864,17 @@
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F25" s="10">
         <v>0</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
@@ -2896,17 +2892,17 @@
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F26" s="10">
         <v>0</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
@@ -2924,17 +2920,17 @@
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F27" s="10">
         <v>0</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
@@ -2952,17 +2948,17 @@
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F28" s="10">
         <v>0</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -2980,17 +2976,17 @@
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F29" s="10">
         <v>0</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
@@ -3008,17 +3004,17 @@
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
@@ -3036,17 +3032,17 @@
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
@@ -3064,17 +3060,17 @@
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
@@ -3092,17 +3088,17 @@
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
@@ -3122,17 +3118,17 @@
         <v>59</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -3149,20 +3145,20 @@
         <v>39</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -3193,417 +3189,417 @@
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="E43" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="F43" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="G43" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="H43" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C44" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>125</v>
-      </c>
       <c r="F44" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G45" s="19"/>
       <c r="H45" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E46" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="G46" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="G46" s="21" t="s">
-        <v>135</v>
-      </c>
       <c r="H46" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C47" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="F47" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="E47" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>139</v>
-      </c>
       <c r="G47" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G49" s="19"/>
       <c r="H49" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C50" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="G50" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D51" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E51" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F51" s="19" t="s">
+      <c r="G51" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="G51" s="19" t="s">
-        <v>149</v>
-      </c>
       <c r="H51" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E52" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F52" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="G52" s="21" t="s">
-        <v>150</v>
-      </c>
       <c r="H52" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E54" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G54" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F54" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G54" s="21" t="s">
-        <v>156</v>
-      </c>
       <c r="H54" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C57" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="F57" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E57" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>160</v>
-      </c>
       <c r="G57" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F59" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G59" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G59" s="19" t="s">
-        <v>169</v>
-      </c>
       <c r="H59" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -3650,758 +3646,758 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="E3" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="F3" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="G3" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="H3" t="s">
         <v>192</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="I3" t="s">
         <v>193</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="J3" t="s">
         <v>194</v>
       </c>
-      <c r="I3" s="22" t="s">
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
         <v>195</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="D4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="E4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="F6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="D8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>198</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="D9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" t="s">
         <v>199</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="F9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" t="s">
+        <v>200</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>198</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="D10" t="s">
         <v>198</v>
       </c>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="E10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" t="s">
+        <v>200</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="E14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" t="s">
+        <v>197</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" t="s">
+        <v>200</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>200</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" t="s">
+        <v>200</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="G23" t="s">
+        <v>200</v>
+      </c>
+      <c r="H23" t="s">
+        <v>200</v>
+      </c>
+      <c r="I23" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" t="s">
+        <v>208</v>
+      </c>
+      <c r="H30" t="s">
+        <v>203</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" t="s">
+        <v>210</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="F32" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" t="s">
+        <v>200</v>
+      </c>
+      <c r="H32" t="s">
+        <v>200</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" t="s">
+        <v>211</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="D35" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" t="s">
         <v>202</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="D33" s="22" t="s">
+      <c r="E36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F36" t="s">
         <v>216</v>
       </c>
-      <c r="E33" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="22" t="s">
+      <c r="G36" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Locations.xlsx
+++ b/Locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Downloads\Spel\Valheim\Serverconfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E536C5-7E32-404E-B7AA-751D4880445B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA7FE04-314B-46FE-9D49-03D5FB3316D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25200" yWindow="315" windowWidth="24720" windowHeight="15150" xr2:uid="{37684AEC-320A-4AAA-9B47-B5B3EE25AFBC}"/>
+    <workbookView xWindow="-24600" yWindow="510" windowWidth="24285" windowHeight="14595" xr2:uid="{37684AEC-320A-4AAA-9B47-B5B3EE25AFBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Specs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="223">
   <si>
     <t>Namn</t>
   </si>
@@ -460,247 +460,250 @@
     <t>Bronze</t>
   </si>
   <si>
+    <t>Bronze Arrow?</t>
+  </si>
+  <si>
+    <t>Ironhead Arrow</t>
+  </si>
+  <si>
+    <t>Poison Resist Pot</t>
+  </si>
+  <si>
+    <t>Guck</t>
+  </si>
+  <si>
+    <t>Chain</t>
+  </si>
+  <si>
+    <t>Turnip Seeds</t>
+  </si>
+  <si>
+    <t>Iron Ore</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Surtling Core</t>
+  </si>
+  <si>
+    <t>Obsidian</t>
+  </si>
+  <si>
+    <t>Wolf Pelt</t>
+  </si>
+  <si>
+    <t>Torch</t>
+  </si>
+  <si>
+    <t>Barley</t>
+  </si>
+  <si>
+    <t>Tar</t>
+  </si>
+  <si>
+    <t>Needle</t>
+  </si>
+  <si>
+    <t>Black Metal Scrap</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Lox Hide</t>
+  </si>
+  <si>
+    <t>Frost Arrow</t>
+  </si>
+  <si>
+    <t>Ex8</t>
+  </si>
+  <si>
+    <t>Ex10</t>
+  </si>
+  <si>
+    <t>Ex9</t>
+  </si>
+  <si>
+    <t>Ex12</t>
+  </si>
+  <si>
+    <t>Ex11</t>
+  </si>
+  <si>
+    <t>Ex16</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>foresthold</t>
+  </si>
+  <si>
+    <t>foresthold_deserted</t>
+  </si>
+  <si>
+    <t>foresthold_remnant</t>
+  </si>
+  <si>
+    <t>foresthold_ruins</t>
+  </si>
+  <si>
+    <t>Ex14</t>
+  </si>
+  <si>
+    <t>Mountains</t>
+  </si>
+  <si>
+    <t>80+</t>
+  </si>
+  <si>
+    <t>3000 - 6000</t>
+  </si>
+  <si>
+    <t>3000 - 5500</t>
+  </si>
+  <si>
+    <t>2500 - 4500</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Draugr</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Skeleton_NoArcher</t>
+  </si>
+  <si>
+    <t>GoblinArcher</t>
+  </si>
+  <si>
+    <t>GoblinShaman</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>GreydwarfShaman</t>
+  </si>
+  <si>
+    <t>Greydwarf</t>
+  </si>
+  <si>
+    <t>Wraith</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Hatchling</t>
+  </si>
+  <si>
+    <t>Deathsquito</t>
+  </si>
+  <si>
+    <t>Draugr_Elite</t>
+  </si>
+  <si>
+    <t>BlobTar</t>
+  </si>
+  <si>
+    <t>Boar</t>
+  </si>
+  <si>
+    <t>Neck</t>
+  </si>
+  <si>
+    <t>GoblinBrute</t>
+  </si>
+  <si>
+    <t>Fenring_Cultist</t>
+  </si>
+  <si>
+    <t>Ulv</t>
+  </si>
+  <si>
+    <t>Greyling</t>
+  </si>
+  <si>
+    <t>Greydwarf_Elite</t>
+  </si>
+  <si>
+    <t>Greydwarf_Spawner</t>
+  </si>
+  <si>
+    <t>Greydwarf_Shaman</t>
+  </si>
+  <si>
+    <t>Spawner_DraugrPile</t>
+  </si>
+  <si>
+    <t>BonePileSpawner</t>
+  </si>
+  <si>
+    <t>20 - 50</t>
+  </si>
+  <si>
     <t>Bronze Axe</t>
   </si>
   <si>
-    <t>Bronze Arrow?</t>
-  </si>
-  <si>
-    <t>Ironhead Arrow</t>
-  </si>
-  <si>
-    <t>Poison Resist Pot</t>
-  </si>
-  <si>
-    <t>Guck</t>
-  </si>
-  <si>
-    <t>Chain</t>
-  </si>
-  <si>
-    <t>Turnip Seeds</t>
-  </si>
-  <si>
-    <t>Iron Ore</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>Surtling Core</t>
-  </si>
-  <si>
-    <t>Obsidian</t>
-  </si>
-  <si>
-    <t>Wolf Pelt</t>
-  </si>
-  <si>
-    <t>Iron Pickaxe</t>
-  </si>
-  <si>
-    <t>Torch</t>
-  </si>
-  <si>
-    <t>Barley</t>
-  </si>
-  <si>
-    <t>Tar</t>
-  </si>
-  <si>
-    <t>Needle</t>
-  </si>
-  <si>
-    <t>Black Metal Scrap</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Lox Hide</t>
-  </si>
-  <si>
-    <t>Frost Arrow</t>
-  </si>
-  <si>
-    <t>Silver Sword</t>
-  </si>
-  <si>
-    <t>Wood Shield</t>
-  </si>
-  <si>
-    <t>Bronze Shield</t>
-  </si>
-  <si>
-    <t>Finebow</t>
-  </si>
-  <si>
-    <t>Needle Arrow</t>
-  </si>
-  <si>
-    <t>Iron Helmet</t>
-  </si>
-  <si>
-    <t>Bronze plate leggings</t>
-  </si>
-  <si>
-    <t>Ex8</t>
-  </si>
-  <si>
-    <t>Ex10</t>
-  </si>
-  <si>
-    <t>Ex9</t>
-  </si>
-  <si>
-    <t>Ex12</t>
-  </si>
-  <si>
-    <t>Ex11</t>
-  </si>
-  <si>
-    <t>Ex16</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>foresthold</t>
-  </si>
-  <si>
-    <t>foresthold_deserted</t>
-  </si>
-  <si>
-    <t>foresthold_remnant</t>
-  </si>
-  <si>
-    <t>foresthold_ruins</t>
-  </si>
-  <si>
-    <t>Ex14</t>
-  </si>
-  <si>
-    <t>Mountains</t>
-  </si>
-  <si>
-    <t>80+</t>
-  </si>
-  <si>
-    <t>3000 - 6000</t>
-  </si>
-  <si>
-    <t>3000 - 5500</t>
-  </si>
-  <si>
-    <t>2500 - 4500</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Draugr</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>Skeleton_NoArcher</t>
-  </si>
-  <si>
-    <t>GoblinArcher</t>
-  </si>
-  <si>
-    <t>GoblinShaman</t>
-  </si>
-  <si>
-    <t>Goblin</t>
-  </si>
-  <si>
-    <t>GreydwarfShaman</t>
-  </si>
-  <si>
-    <t>Greydwarf</t>
-  </si>
-  <si>
-    <t>Wraith</t>
-  </si>
-  <si>
-    <t>Ghost</t>
-  </si>
-  <si>
-    <t>Wolf</t>
-  </si>
-  <si>
-    <t>Hatchling</t>
-  </si>
-  <si>
-    <t>Deathsquito</t>
-  </si>
-  <si>
-    <t>Draugr_Elite</t>
-  </si>
-  <si>
-    <t>BlobTar</t>
-  </si>
-  <si>
-    <t>Boar</t>
-  </si>
-  <si>
-    <t>Neck</t>
-  </si>
-  <si>
-    <t>GoblinBrute</t>
-  </si>
-  <si>
-    <t>Fenring_Cultist</t>
-  </si>
-  <si>
-    <t>Ulv</t>
-  </si>
-  <si>
-    <t>Greyling</t>
-  </si>
-  <si>
-    <t>Greydwarf_Elite</t>
-  </si>
-  <si>
-    <t>Greydwarf_Spawner</t>
-  </si>
-  <si>
-    <t>Greydwarf_Shaman</t>
-  </si>
-  <si>
-    <t>Spawner_DraugrPile</t>
-  </si>
-  <si>
-    <t>BonePileSpawner</t>
-  </si>
-  <si>
-    <t>20 - 50</t>
+    <t>Bronze Spear</t>
+  </si>
+  <si>
+    <t>Iron Sword</t>
+  </si>
+  <si>
+    <t>SpearWolfFang</t>
+  </si>
+  <si>
+    <t>KnifeBlackMetal</t>
+  </si>
+  <si>
+    <t>DraugrFang</t>
+  </si>
+  <si>
+    <t>PaddedCuirass</t>
+  </si>
+  <si>
+    <t>FenrirChest</t>
+  </si>
+  <si>
+    <t>SwordSilver</t>
+  </si>
+  <si>
+    <t>SilverShield</t>
   </si>
 </sst>
 </file>
@@ -2108,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D7D58F-8042-4B06-93D6-9BA336593CA8}">
   <dimension ref="A2:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,7 +2183,7 @@
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>44</v>
@@ -2190,10 +2193,10 @@
         <v>76</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="10" t="s">
@@ -2214,7 +2217,7 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>44</v>
@@ -2224,10 +2227,10 @@
         <v>76</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="10" t="s">
@@ -2248,7 +2251,7 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>39</v>
@@ -2261,7 +2264,7 @@
         <v>74</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="10" t="s">
@@ -2282,20 +2285,20 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="10" t="s">
@@ -2332,7 +2335,7 @@
         <v>89</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="10" t="s">
@@ -2366,7 +2369,7 @@
         <v>90</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="10" t="s">
@@ -2402,7 +2405,7 @@
         <v>89</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="10" t="s">
@@ -2438,7 +2441,7 @@
         <v>90</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="10" t="s">
@@ -2472,7 +2475,7 @@
         <v>88</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="10" t="s">
@@ -2500,7 +2503,7 @@
         <v>63</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="10" t="s">
@@ -2530,7 +2533,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="10" t="s">
@@ -2560,7 +2563,7 @@
         <v>71</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="10" t="s">
@@ -2588,7 +2591,7 @@
         <v>71</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="10" t="s">
@@ -2616,7 +2619,7 @@
         <v>70</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="10" t="s">
@@ -2644,7 +2647,7 @@
         <v>70</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="10" t="s">
@@ -2672,7 +2675,7 @@
         <v>74</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="10" t="s">
@@ -2700,7 +2703,7 @@
         <v>-5500</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="10" t="s">
@@ -2730,7 +2733,7 @@
         <v>-5500</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="10" t="s">
@@ -2758,7 +2761,7 @@
         <v>-5500</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="10" t="s">
@@ -2786,7 +2789,7 @@
         <v>-5500</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="10" t="s">
@@ -2814,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="10" t="s">
@@ -2842,7 +2845,7 @@
         <v>-5500</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="10" t="s">
@@ -2870,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="10" t="s">
@@ -2898,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="10" t="s">
@@ -2926,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="10" t="s">
@@ -2954,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="10" t="s">
@@ -2982,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="10" t="s">
@@ -3010,7 +3013,7 @@
         <v>63</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="10" t="s">
@@ -3038,7 +3041,7 @@
         <v>64</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="10" t="s">
@@ -3060,13 +3063,13 @@
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>64</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="10" t="s">
@@ -3094,7 +3097,7 @@
         <v>64</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="10" t="s">
@@ -3124,7 +3127,7 @@
         <v>64</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="10" t="s">
@@ -3154,7 +3157,7 @@
         <v>65</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="10" t="s">
@@ -3207,7 +3210,7 @@
         <v>104</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -3232,7 +3235,7 @@
         <v>128</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -3255,7 +3258,7 @@
       </c>
       <c r="G45" s="19"/>
       <c r="H45" s="19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -3280,7 +3283,7 @@
         <v>133</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -3302,10 +3305,10 @@
         <v>137</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -3330,7 +3333,7 @@
         <v>121</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -3353,7 +3356,7 @@
       </c>
       <c r="G49" s="19"/>
       <c r="H49" s="19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I49" s="2"/>
     </row>
@@ -3366,20 +3369,18 @@
         <v>140</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="E50" s="21" t="s">
         <v>122</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>175</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="H50" s="19"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3391,19 +3392,19 @@
         <v>136</v>
       </c>
       <c r="D51" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="F51" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="19" t="s">
-        <v>145</v>
-      </c>
       <c r="G51" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I51" s="2"/>
     </row>
@@ -3416,19 +3417,19 @@
         <v>134</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -3438,22 +3439,22 @@
         <v>114</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>132</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="G53" s="19" t="s">
         <v>136</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -3466,19 +3467,19 @@
         <v>136</v>
       </c>
       <c r="D54" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="21" t="s">
         <v>151</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>152</v>
       </c>
       <c r="F54" s="21" t="s">
         <v>137</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -3488,23 +3489,21 @@
         <v>116</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="H55" s="19" t="s">
-        <v>175</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="H55" s="19"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3512,7 +3511,7 @@
         <v>117</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D56" s="21" t="s">
         <v>136</v>
@@ -3521,13 +3520,13 @@
         <v>122</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>128</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -3536,22 +3535,22 @@
         <v>118</v>
       </c>
       <c r="C57" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="F57" s="19" t="s">
         <v>156</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>158</v>
       </c>
       <c r="G57" s="19" t="s">
         <v>122</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I57" s="2"/>
     </row>
@@ -3563,19 +3562,19 @@
         <v>124</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>140</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I58" s="2"/>
     </row>
@@ -3584,22 +3583,22 @@
         <v>120</v>
       </c>
       <c r="C59" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H59" s="19" t="s">
         <v>166</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="H59" s="19" t="s">
-        <v>175</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -3647,132 +3646,132 @@
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="I4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="J4"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H5" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="I5" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="J5"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="I6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="J6"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -3783,22 +3782,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F8" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G8" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H8" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -3808,22 +3807,22 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F9" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G9" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H9" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -3833,22 +3832,22 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G10" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H10" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -3858,16 +3857,16 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F11" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -3879,22 +3878,22 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F12" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G12" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H12" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -3904,22 +3903,22 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F13" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G13" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H13" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -3929,13 +3928,13 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -3948,22 +3947,22 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" t="s">
         <v>195</v>
       </c>
-      <c r="E15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" t="s">
-        <v>204</v>
-      </c>
       <c r="G15" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H15" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -3973,10 +3972,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -3990,13 +3989,13 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D17" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -4009,10 +4008,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D18" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -4026,22 +4025,22 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" t="s">
         <v>195</v>
       </c>
-      <c r="D19" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" t="s">
-        <v>204</v>
-      </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H19" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -4051,19 +4050,19 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E20" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
@@ -4074,19 +4073,19 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D21" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E21" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
@@ -4097,19 +4096,19 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E22" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
@@ -4120,25 +4119,25 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D23" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E23" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G23" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H23" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="J23"/>
     </row>
@@ -4147,7 +4146,7 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -4162,13 +4161,13 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E25" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -4181,13 +4180,13 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D26" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E26" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
@@ -4200,7 +4199,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -4215,7 +4214,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -4230,19 +4229,19 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D29" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E29" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G29" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
@@ -4253,22 +4252,22 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D30" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E30" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F30" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G30" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H30" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -4278,22 +4277,22 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D31" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E31" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F31" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G31" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H31" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -4303,22 +4302,22 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D32" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F32" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G32" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H32" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -4328,13 +4327,13 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D33" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E33" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
@@ -4347,10 +4346,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D34" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
@@ -4364,10 +4363,10 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
@@ -4381,19 +4380,19 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D36" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E36" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F36" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G36" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
